--- a/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationadministration-injection.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/StructureDefinition-jp-medicationadministration-injection.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3923" uniqueCount="642">
   <si>
     <t>Property</t>
   </si>
@@ -1016,7 +1016,7 @@
     <t>MedicationAdministration.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
 </t>
   </si>
   <si>
@@ -1038,13 +1038,6 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -1055,16 +1048,6 @@
   </si>
   <si>
     <t>RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.medication[x]:medicationReference</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)
-</t>
   </si>
   <si>
     <t>MedicationAdministration.subject</t>
@@ -1998,6 +1981,13 @@
   <si>
     <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.
 レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -2369,7 +2359,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO106"/>
+  <dimension ref="A1:AO105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -7060,14 +7050,16 @@
         <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>319</v>
@@ -7085,16 +7077,16 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -7102,14 +7094,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>79</v>
       </c>
@@ -7130,16 +7120,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N41" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>323</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7189,7 +7179,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>88</v>
@@ -7204,16 +7194,16 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -7221,10 +7211,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7232,7 +7222,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>88</v>
@@ -7244,19 +7234,19 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7306,10 +7296,10 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>88</v>
@@ -7321,16 +7311,16 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>79</v>
@@ -7338,10 +7328,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7352,7 +7342,7 @@
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7364,16 +7354,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7423,13 +7413,13 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
@@ -7438,16 +7428,16 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7466,10 +7456,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7478,7 +7468,7 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>351</v>
@@ -7490,7 +7480,7 @@
         <v>353</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7543,10 +7533,10 @@
         <v>350</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>79</v>
@@ -7555,16 +7545,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7572,10 +7562,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7583,10 +7573,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7598,17 +7588,15 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>359</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7657,13 +7645,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7672,16 +7660,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
@@ -7689,10 +7677,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7703,7 +7691,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7712,16 +7700,16 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7772,31 +7760,31 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>364</v>
+        <v>193</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>368</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>79</v>
@@ -7804,21 +7792,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7830,15 +7818,17 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7887,19 +7877,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7919,14 +7909,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>168</v>
+        <v>374</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7939,24 +7929,26 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="O48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -8004,7 +7996,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8022,7 +8014,7 @@
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -8043,39 +8035,35 @@
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -8099,13 +8087,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>79</v>
+        <v>381</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -8123,25 +8111,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>79</v>
+        <v>383</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -8155,10 +8143,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8166,7 +8154,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -8178,16 +8166,16 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>216</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8214,13 +8202,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -8238,10 +8226,10 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
@@ -8253,10 +8241,10 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
@@ -8270,10 +8258,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8281,10 +8269,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -8293,10 +8281,10 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>391</v>
+        <v>216</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>392</v>
@@ -8329,13 +8317,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>79</v>
+        <v>394</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8353,13 +8341,13 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
@@ -8368,16 +8356,16 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
@@ -8385,10 +8373,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8411,15 +8399,17 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>216</v>
+        <v>400</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8444,31 +8434,31 @@
         <v>79</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8483,27 +8473,27 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8514,7 +8504,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8526,18 +8516,20 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>79</v>
       </c>
@@ -8585,13 +8577,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -8600,27 +8592,27 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>79</v>
+        <v>416</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8631,7 +8623,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8643,20 +8635,18 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>418</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8704,13 +8694,13 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>79</v>
@@ -8719,16 +8709,16 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
@@ -8736,10 +8726,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8762,16 +8752,16 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>337</v>
+        <v>427</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8821,7 +8811,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8836,16 +8826,16 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>79</v>
+        <v>428</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8853,10 +8843,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8867,7 +8857,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8879,17 +8869,15 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>429</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N56" t="s" s="2">
         <v>432</v>
       </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8938,22 +8926,22 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>433</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>433</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>434</v>
@@ -8996,13 +8984,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>190</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9053,7 +9041,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>435</v>
+        <v>193</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9065,13 +9053,13 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>438</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>439</v>
+        <v>194</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -9085,10 +9073,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9099,7 +9087,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -9111,13 +9099,13 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>373</v>
+        <v>134</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>374</v>
+        <v>135</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9156,37 +9144,35 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -9200,12 +9186,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9226,13 +9214,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>134</v>
+        <v>440</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>135</v>
+        <v>441</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9271,14 +9259,16 @@
         <v>79</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC59" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>201</v>
@@ -9290,10 +9280,10 @@
         <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
@@ -9316,7 +9306,7 @@
         <v>442</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>443</v>
@@ -9433,7 +9423,7 @@
         <v>447</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C61" t="s" s="2">
         <v>448</v>
@@ -9550,7 +9540,7 @@
         <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>453</v>
@@ -9667,7 +9657,7 @@
         <v>457</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>458</v>
@@ -9784,13 +9774,11 @@
         <v>462</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9803,22 +9791,26 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>464</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>465</v>
+        <v>375</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>376</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9866,7 +9858,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>201</v>
+        <v>377</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9875,16 +9867,16 @@
         <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9898,46 +9890,42 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>380</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
       </c>
@@ -9985,25 +9973,25 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>131</v>
+        <v>466</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
@@ -10017,10 +10005,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10043,15 +10031,17 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>469</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10076,13 +10066,11 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -10100,7 +10088,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10118,13 +10106,13 @@
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>79</v>
+        <v>473</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -10132,10 +10120,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10158,17 +10146,15 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>473</v>
+        <v>191</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -10193,11 +10179,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10215,7 +10203,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>472</v>
+        <v>193</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10227,19 +10215,19 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>477</v>
+        <v>194</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -10247,21 +10235,21 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10273,15 +10261,17 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
@@ -10318,31 +10308,31 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -10362,14 +10352,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>477</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10388,17 +10380,15 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>133</v>
+        <v>478</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>197</v>
+        <v>479</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -10435,16 +10425,16 @@
         <v>79</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>201</v>
@@ -10465,7 +10455,7 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
@@ -10482,7 +10472,7 @@
         <v>481</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>482</v>
@@ -10599,11 +10589,9 @@
         <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="C71" t="s" s="2">
-        <v>487</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10621,19 +10609,23 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>488</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
       </c>
@@ -10681,7 +10673,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10693,19 +10685,19 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10713,10 +10705,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10727,7 +10719,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10739,19 +10731,19 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10800,13 +10792,13 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
@@ -10818,13 +10810,13 @@
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10832,10 +10824,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10855,23 +10847,21 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10895,13 +10885,11 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>79</v>
+        <v>506</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10919,7 +10907,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10931,19 +10919,19 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10951,10 +10939,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10977,17 +10965,15 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>509</v>
+        <v>191</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>306</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11012,11 +10998,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y74" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -11034,7 +11022,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11046,19 +11034,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>512</v>
+        <v>194</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>513</v>
+        <v>79</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -11066,21 +11054,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -11092,15 +11080,17 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11137,31 +11127,31 @@
         <v>79</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
@@ -11181,14 +11171,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C76" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="D76" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11207,17 +11199,15 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>513</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>197</v>
+        <v>514</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11254,16 +11244,16 @@
         <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>201</v>
@@ -11284,7 +11274,7 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11301,11 +11291,9 @@
         <v>516</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="C77" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11323,19 +11311,23 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -11383,7 +11375,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11395,19 +11387,19 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11415,10 +11407,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11429,7 +11421,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11441,19 +11433,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -11502,13 +11494,13 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
@@ -11520,13 +11512,13 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11534,10 +11526,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11557,22 +11549,22 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>501</v>
+        <v>519</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>502</v>
+        <v>519</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11597,13 +11589,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>522</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>79</v>
+        <v>523</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -11621,7 +11613,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11633,19 +11625,19 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>506</v>
+        <v>524</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>507</v>
+        <v>525</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11653,10 +11645,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11679,20 +11671,16 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>524</v>
+        <v>191</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11716,13 +11704,13 @@
         <v>79</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>527</v>
+        <v>79</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>528</v>
+        <v>79</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>79</v>
@@ -11740,7 +11728,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>523</v>
+        <v>193</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11752,19 +11740,19 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>529</v>
+        <v>194</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>530</v>
+        <v>79</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11772,21 +11760,21 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11798,15 +11786,17 @@
         <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11843,31 +11833,31 @@
         <v>79</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
@@ -11887,14 +11877,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>527</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="D82" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11913,17 +11905,15 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>133</v>
+        <v>530</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>197</v>
+        <v>531</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11960,16 +11950,16 @@
         <v>79</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>201</v>
@@ -11990,7 +11980,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -12007,11 +11997,9 @@
         <v>533</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>79</v>
       </c>
@@ -12029,19 +12017,23 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>535</v>
+        <v>487</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>536</v>
+        <v>488</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>79</v>
       </c>
@@ -12077,19 +12069,17 @@
         <v>79</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -12101,19 +12091,19 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>79</v>
+        <v>493</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -12121,12 +12111,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>79</v>
       </c>
@@ -12135,7 +12127,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -12147,19 +12139,19 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>79</v>
@@ -12184,29 +12176,29 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>79</v>
+        <v>540</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AC84" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12224,13 +12216,13 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -12238,14 +12230,12 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C85" t="s" s="2">
-        <v>540</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12263,23 +12253,19 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>541</v>
+        <v>191</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -12303,11 +12289,13 @@
         <v>79</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y85" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z85" t="s" s="2">
-        <v>545</v>
+        <v>79</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>79</v>
@@ -12325,31 +12313,31 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>497</v>
+        <v>193</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>498</v>
+        <v>194</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>79</v>
@@ -12357,21 +12345,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -12383,15 +12371,17 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -12428,31 +12418,31 @@
         <v>79</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>79</v>
@@ -12472,21 +12462,21 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -12495,27 +12485,29 @@
         <v>79</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>197</v>
+        <v>547</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>198</v>
+        <v>548</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O87" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>79</v>
+        <v>551</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>79</v>
@@ -12545,43 +12537,43 @@
         <v>79</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>201</v>
+        <v>552</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>194</v>
+        <v>553</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>79</v>
@@ -12589,10 +12581,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12600,7 +12592,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>88</v>
@@ -12615,26 +12607,24 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>556</v>
+        <v>79</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>79</v>
@@ -12676,7 +12666,7 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12694,13 +12684,13 @@
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>79</v>
@@ -12708,10 +12698,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12734,18 +12724,18 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>79</v>
       </c>
@@ -12793,7 +12783,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12811,13 +12801,13 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>79</v>
@@ -12825,10 +12815,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12851,17 +12841,17 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>79</v>
@@ -12910,7 +12900,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12928,13 +12918,13 @@
         <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>79</v>
@@ -12942,10 +12932,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12968,17 +12958,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O91" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -13027,7 +13019,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -13045,13 +13037,13 @@
         <v>79</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>79</v>
@@ -13059,12 +13051,14 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="C92" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>590</v>
+      </c>
       <c r="D92" t="s" s="2">
         <v>79</v>
       </c>
@@ -13085,19 +13079,19 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>586</v>
+        <v>487</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>589</v>
+        <v>538</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>79</v>
@@ -13122,13 +13116,11 @@
         <v>79</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y92" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="Y92" s="2"/>
       <c r="Z92" t="s" s="2">
-        <v>79</v>
+        <v>593</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>79</v>
@@ -13146,13 +13138,13 @@
         <v>79</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>591</v>
+        <v>492</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>79</v>
@@ -13164,13 +13156,13 @@
         <v>79</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>592</v>
+        <v>493</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>593</v>
+        <v>494</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>79</v>
@@ -13181,11 +13173,9 @@
         <v>594</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="C93" t="s" s="2">
-        <v>595</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13203,23 +13193,19 @@
         <v>79</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>596</v>
+        <v>191</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>543</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>544</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>79</v>
       </c>
@@ -13243,11 +13229,13 @@
         <v>79</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="Y93" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z93" t="s" s="2">
-        <v>598</v>
+        <v>79</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>79</v>
@@ -13265,31 +13253,31 @@
         <v>79</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>497</v>
+        <v>193</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>498</v>
+        <v>194</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>499</v>
+        <v>79</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>79</v>
@@ -13297,21 +13285,21 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>79</v>
+        <v>168</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>79</v>
@@ -13323,15 +13311,17 @@
         <v>79</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N94" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>79</v>
@@ -13368,31 +13358,31 @@
         <v>79</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -13412,21 +13402,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>79</v>
@@ -13435,27 +13425,29 @@
         <v>79</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>197</v>
+        <v>547</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>198</v>
+        <v>548</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O95" s="2"/>
+        <v>549</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>550</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q95" s="2"/>
       <c r="R95" t="s" s="2">
-        <v>79</v>
+        <v>597</v>
       </c>
       <c r="S95" t="s" s="2">
         <v>79</v>
@@ -13485,43 +13477,43 @@
         <v>79</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>201</v>
+        <v>552</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>146</v>
+        <v>212</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>194</v>
+        <v>553</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>79</v>
+        <v>554</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>79</v>
@@ -13529,10 +13521,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13540,7 +13532,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>88</v>
@@ -13555,26 +13547,24 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q96" s="2"/>
       <c r="R96" t="s" s="2">
-        <v>602</v>
+        <v>79</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>79</v>
@@ -13616,7 +13606,7 @@
         <v>79</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13634,13 +13624,13 @@
         <v>79</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>79</v>
@@ -13648,10 +13638,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13674,18 +13664,18 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>190</v>
+        <v>108</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>566</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" t="s" s="2">
+        <v>567</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>79</v>
       </c>
@@ -13733,7 +13723,7 @@
         <v>79</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13751,13 +13741,13 @@
         <v>79</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>79</v>
@@ -13765,10 +13755,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13791,17 +13781,17 @@
         <v>89</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>79</v>
@@ -13850,7 +13840,7 @@
         <v>79</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
@@ -13868,13 +13858,13 @@
         <v>79</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>79</v>
@@ -13882,10 +13872,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13908,17 +13898,19 @@
         <v>89</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>190</v>
+        <v>581</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="N99" s="2"/>
+        <v>583</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="O99" t="s" s="2">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>79</v>
@@ -13967,7 +13959,7 @@
         <v>79</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13985,13 +13977,13 @@
         <v>79</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>79</v>
@@ -13999,10 +13991,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14025,19 +14017,19 @@
         <v>89</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>586</v>
+        <v>190</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>587</v>
+        <v>603</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>79</v>
@@ -14086,7 +14078,7 @@
         <v>79</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>591</v>
+        <v>500</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14104,13 +14096,13 @@
         <v>79</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>592</v>
+        <v>501</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>593</v>
+        <v>502</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>79</v>
@@ -14141,23 +14133,21 @@
         <v>79</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>190</v>
+        <v>608</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="O101" t="s" s="2">
         <v>611</v>
       </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>79</v>
       </c>
@@ -14205,7 +14195,7 @@
         <v>79</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>505</v>
+        <v>607</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14214,22 +14204,22 @@
         <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>212</v>
+        <v>612</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>506</v>
+        <v>613</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>507</v>
+        <v>614</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>79</v>
@@ -14237,10 +14227,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14263,16 +14253,16 @@
         <v>79</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -14310,19 +14300,17 @@
         <v>79</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>620</v>
+      </c>
+      <c r="AC102" s="2"/>
       <c r="AD102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>79</v>
+        <v>621</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14331,22 +14319,22 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>617</v>
+        <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>79</v>
@@ -14354,12 +14342,14 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C103" s="2"/>
+        <v>615</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>625</v>
+      </c>
       <c r="D103" t="s" s="2">
         <v>79</v>
       </c>
@@ -14380,16 +14370,16 @@
         <v>79</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14427,17 +14417,19 @@
         <v>79</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AC103" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
@@ -14446,22 +14438,22 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>100</v>
+        <v>629</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>626</v>
+        <v>131</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>79</v>
@@ -14469,13 +14461,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>79</v>
@@ -14497,16 +14489,16 @@
         <v>79</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14556,7 +14548,7 @@
         <v>79</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14568,19 +14560,19 @@
         <v>145</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>131</v>
+        <v>614</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>79</v>
@@ -14588,14 +14580,12 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>620</v>
-      </c>
-      <c r="C105" t="s" s="2">
-        <v>635</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
         <v>79</v>
       </c>
@@ -14604,7 +14594,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>79</v>
@@ -14616,16 +14606,16 @@
         <v>79</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14675,150 +14665,33 @@
         <v>79</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>620</v>
+        <v>636</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>617</v>
+        <v>100</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>618</v>
+        <v>641</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>619</v>
+        <v>79</v>
       </c>
       <c r="AO105" t="s" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>640</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>642</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>643</v>
-      </c>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>639</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO106" t="s" s="2">
         <v>79</v>
       </c>
     </row>
